--- a/Atas/Ata 21 09 2001.xlsx
+++ b/Atas/Ata 21 09 2001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandtec\Pesquisa e Inovação\Cultivo Inteligente\cultivo-inteligente\Atas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE923F-5543-4545-AE04-8512087B320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72747671-6641-4D02-8C5A-7AC7D1E43B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>DATA REALIZADA</t>
   </si>
   <si>
-    <t>MEMBROS QUE FIZERAM</t>
-  </si>
-  <si>
     <t>Novas Tabelas Do Bando de Dados</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Criação de Modelagem Lógica do Projeto</t>
+  </si>
+  <si>
+    <t>MEMBROS RESPONSÁVEIS</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="16">
         <v>44460</v>
@@ -769,9 +769,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C16" s="16">
+        <v>44460</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
@@ -789,7 +797,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -802,7 +810,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="16">
         <v>44463</v>

--- a/Atas/Ata 21 09 2001.xlsx
+++ b/Atas/Ata 21 09 2001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandtec\Pesquisa e Inovação\Cultivo Inteligente\cultivo-inteligente\Atas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bandtec\Pesquisa e Inovação\Cultivo Inteligente\cultivo-inteligente\Atas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72747671-6641-4D02-8C5A-7AC7D1E43B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C1983-2B1D-4BFA-B6BC-AE09258E3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
